--- a/spreadsheet/macrofree/review_checklist_empty.xlsx
+++ b/spreadsheet/macrofree/review_checklist_empty.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erjos\Repos\review-checklists\spreadsheet\macrofree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC80860-F6EB-470A-B05D-3D33248901CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD081A5F-C58F-4F74-B470-41010F0DB7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
-  <si>
-    <t>FastTrack for Azure Checklist</t>
-  </si>
   <si>
     <t>Azure Landing Zone Review</t>
   </si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>es</t>
+  </si>
+  <si>
+    <t>Azure Checklist</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -434,6 +452,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -478,60 +514,6 @@
         <bottom style="thin">
           <color theme="2" tint="-9.9948118533890809E-2"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -581,20 +563,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -616,13 +584,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -630,23 +591,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -671,6 +634,8 @@
         <bottom style="thin">
           <color theme="2" tint="-9.9948118533890809E-2"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1014,7 +979,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1040,7 +1005,7 @@
   <sheetData>
     <row r="2" spans="1:16" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="17"/>
@@ -1059,7 +1024,7 @@
     </row>
     <row r="4" spans="1:16" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1093,52 +1058,52 @@
     </row>
     <row r="7" spans="1:16" s="19" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="L7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="M7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="N7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="O7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="P7" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" customHeight="1">
@@ -5998,20 +5963,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
-    <cfRule type="expression" dxfId="34" priority="57">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="58">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" dxfId="32" priority="31">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" dxfId="27" priority="26">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" dxfId="25" priority="9">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="10">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="37">
+    <cfRule type="expression" dxfId="22" priority="37">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" dxfId="9" priority="28">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="29">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" dxfId="5" priority="251">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="250">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87:P297 H87:I308">
+    <cfRule type="expression" dxfId="3" priority="57">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="58">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -6021,121 +6084,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" dxfId="30" priority="250">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="251">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" dxfId="7" priority="26">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="27">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" dxfId="5" priority="28">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="29">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6171,104 +6119,104 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>7</v>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>18</v>
+      <c r="E2" t="s">
+        <v>30</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="9" t="s">
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>41</v>
       </c>
-      <c r="K5" t="s">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="10" t="s">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
